--- a/Datasheets/MDO-2074EX.xlsx
+++ b/Datasheets/MDO-2074EX.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3cb3f6eeceb65200/Documents/Albstadt/5Semester/Extraktion_aus_Datenblättern_mit_KI/Projekt_Extraktion/Datasheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24" documentId="11_11C9E8F28FAAC3E2ADDAF57FB264D8D354307848" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B78F5956-6B4B-47D6-BD71-5FA5B3EF24E0}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="11_11C9E8F28FAAC3E2ADDAF57FB264D8D354307848" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6F1EC15E-3AA4-46C5-91FD-AA24C45BF8A3}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="26160" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="26160" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Target_Values" sheetId="1" r:id="rId1"/>
@@ -404,7 +404,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -414,6 +414,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -472,6 +475,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -761,7 +768,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -974,7 +981,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1065,7 +1074,7 @@
         <f>Target_Values!A7</f>
         <v>Triggerarten</v>
       </c>
-      <c r="B7" s="1" t="str">
+      <c r="B7" s="5" t="str">
         <f>Target_Values!B7</f>
         <v>Edge, Pulse Width (Glitch), Video, Pulse Runt, Rise&amp;Fall (Slope), Alternate, Time out, Event-Delay, Time-Delay, Bus</v>
       </c>
